--- a/Thresholding/Results/MatchComparisonResults_G.xlsx
+++ b/Thresholding/Results/MatchComparisonResults_G.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>MatchPercentage</t>
   </si>
@@ -22,6 +22,15 @@
   </si>
   <si>
     <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
   </si>
   <si>
     <t>HK_G_acc_SD</t>
@@ -81,7 +90,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/MatchComparisonResults_G.xlsx
+++ b/Thresholding/Results/MatchComparisonResults_G.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>MatchPercentage</t>
   </si>
@@ -22,6 +22,9 @@
   </si>
   <si>
     <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
   </si>
   <si>
     <t>HK_G_acc_SD</t>
@@ -90,247 +93,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.578811369509047</v>
+        <v>50.135501355013545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>47.674418604651166</v>
+        <v>50.135501355013545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>47.932816537467701</v>
+        <v>49.59349593495935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.708010335917315</v>
+        <v>50.135501355013545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>49.741602067183457</v>
+        <v>51.490514905149055</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>49.612403100775197</v>
+        <v>50.40650406504065</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.837209302325576</v>
+        <v>50.40650406504065</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>52.325581395348841</v>
+        <v>55.284552845528459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>50.129198966408275</v>
+        <v>52.032520325203258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>49.612403100775197</v>
+        <v>51.219512195121951</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>47.803617571059434</v>
+        <v>48.238482384823847</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>49.870801033591732</v>
+        <v>52.303523035230349</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>51.291989664082685</v>
+        <v>51.219512195121951</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>51.162790697674424</v>
+        <v>51.761517615176153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>51.162790697674424</v>
+        <v>52.032520325203258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>49.224806201550386</v>
+        <v>50.677506775067748</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>50</v>
+        <v>50.40650406504065</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>51.550387596899228</v>
+        <v>53.658536585365859</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>54.00516795865633</v>
+        <v>56.36856368563685</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>53.746770025839794</v>
+        <v>56.639566395663955</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>49.741602067183457</v>
+        <v>50.135501355013545</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>43.281653746770026</v>
+        <v>46.341463414634148</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>40.439276485788113</v>
+        <v>42.547425474254737</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>40.310077519379846</v>
+        <v>42.276422764227647</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>56.201550387596896</v>
+        <v>59.349593495934961</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>49.741602067183457</v>
+        <v>51.219512195121951</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>55.813953488372093</v>
+        <v>55.826558265582662</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>47.674418604651166</v>
+        <v>50.135501355013545</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>47.803617571059434</v>
+        <v>50.948509485094853</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>49.224806201550386</v>
+        <v>51.761517615176153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>45.60723514211886</v>
+        <v>46.883468834688344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>45.865633074935403</v>
+        <v>46.070460704607044</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>46.253229974160206</v>
+        <v>46.883468834688344</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>41.731266149870798</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>41.343669250645995</v>
+        <v>43.089430894308947</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.708010335917315</v>
+        <v>55.013550135501355</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>38.63049095607235</v>
+        <v>39.024390243902438</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>39.793281653746767</v>
+        <v>39.566395663956641</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>41.214470284237727</v>
+        <v>42.818428184281842</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>53.229974160206716</v>
+        <v>58.536585365853654</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>49.612403100775197</v>
+        <v>52.574525745257446</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>50.904392764857889</v>
+        <v>53.116531165311656</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>52.583979328165377</v>
+        <v>54.200542005420047</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>47.545219638242891</v>
+        <v>50.40650406504065</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>47.803617571059434</v>
+        <v>50.677506775067748</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.320413436692505</v>
+        <v>49.322493224932252</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>57.881136950904391</v>
+        <v>60.433604336043359</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>50.129198966408275</v>
+        <v>50.677506775067748</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/MatchComparisonResults_G.xlsx
+++ b/Thresholding/Results/MatchComparisonResults_G.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>MatchPercentage</t>
   </si>
@@ -22,6 +22,9 @@
   </si>
   <si>
     <t>MatchPercentage</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
   </si>
   <si>
     <t>HK_G_acc_SD</t>
@@ -93,247 +96,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>50.135501355013545</v>
+        <v>45.25745257452575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>50.135501355013545</v>
+        <v>43.089430894308947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>49.59349593495935</v>
+        <v>44.715447154471541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>50.135501355013545</v>
+        <v>44.986449864498645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>51.490514905149055</v>
+        <v>45.25745257452575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>50.40650406504065</v>
+        <v>45.25745257452575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>50.40650406504065</v>
+        <v>45.528455284552841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>55.284552845528459</v>
+        <v>49.322493224932252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>52.032520325203258</v>
+        <v>46.341463414634148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>51.219512195121951</v>
+        <v>45.799457994579946</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.238482384823847</v>
+        <v>43.089430894308947</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>52.303523035230349</v>
+        <v>46.883468834688344</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>51.219512195121951</v>
+        <v>47.154471544715449</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>51.761517615176153</v>
+        <v>46.883468834688344</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>52.032520325203258</v>
+        <v>46.612466124661246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>50.677506775067748</v>
+        <v>46.341463414634148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>50.40650406504065</v>
+        <v>46.070460704607044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>53.658536585365859</v>
+        <v>48.780487804878049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>56.36856368563685</v>
+        <v>45.25745257452575</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>56.639566395663955</v>
+        <v>45.25745257452575</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>50.135501355013545</v>
+        <v>46.341463414634148</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>46.341463414634148</v>
+        <v>41.192411924119241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>42.547425474254737</v>
+        <v>38.211382113821138</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>42.276422764227647</v>
+        <v>37.94037940379404</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>59.349593495934961</v>
+        <v>47.696476964769644</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>51.219512195121951</v>
+        <v>45.799457994579946</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>55.826558265582662</v>
+        <v>50.948509485094853</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>50.135501355013545</v>
+        <v>45.799457994579946</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>50.948509485094853</v>
+        <v>46.883468834688344</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>51.761517615176153</v>
+        <v>47.154471544715449</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>46.883468834688344</v>
+        <v>41.192411924119241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>46.070460704607044</v>
+        <v>40.650406504065039</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>46.883468834688344</v>
+        <v>42.005420054200542</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>44.444444444444443</v>
+        <v>39.295392953929536</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>43.089430894308947</v>
+        <v>37.669376693766935</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>55.013550135501355</v>
+        <v>44.986449864498645</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>39.024390243902438</v>
+        <v>37.398373983739837</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>39.566395663956641</v>
+        <v>37.94037940379404</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>42.818428184281842</v>
+        <v>38.482384823848236</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>58.536585365853654</v>
+        <v>47.154471544715449</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>52.574525745257446</v>
+        <v>47.154471544715449</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>53.116531165311656</v>
+        <v>47.154471544715449</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>54.200542005420047</v>
+        <v>45.25745257452575</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>50.40650406504065</v>
+        <v>45.25745257452575</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>50.677506775067748</v>
+        <v>44.715447154471541</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>49.322493224932252</v>
+        <v>43.360433604336045</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>60.433604336043359</v>
+        <v>49.322493224932252</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>50.677506775067748</v>
+        <v>45.799457994579946</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/MatchComparisonResults_G.xlsx
+++ b/Thresholding/Results/MatchComparisonResults_G.xlsx
@@ -13,22 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>MatchPercentage</t>
-  </si>
-  <si>
-    <t>HK_G_acc_SD</t>
-  </si>
-  <si>
-    <t>HK_G_acc_SD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>HK_G_acc_SD</t>
   </si>
@@ -96,247 +81,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>45.25745257452575</v>
+        <v>64.769647696476966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>43.089430894308947</v>
+        <v>64.769647696476966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>44.715447154471541</v>
+        <v>65.040650406504056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>44.986449864498645</v>
+        <v>64.498644986449861</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>45.25745257452575</v>
+        <v>63.956639566395665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>45.25745257452575</v>
+        <v>64.498644986449861</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>45.528455284552841</v>
+        <v>65.853658536585371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>49.322493224932252</v>
+        <v>68.834688346883468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>46.341463414634148</v>
+        <v>69.647696476964768</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>45.799457994579946</v>
+        <v>67.208672086720867</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>43.089430894308947</v>
+        <v>65.311653116531161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>46.883468834688344</v>
+        <v>68.563685636856363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>47.154471544715449</v>
+        <v>69.105691056910572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>46.883468834688344</v>
+        <v>68.834688346883468</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>46.612466124661246</v>
+        <v>68.834688346883468</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>46.341463414634148</v>
+        <v>67.208672086720867</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>46.070460704607044</v>
+        <v>67.750677506775077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.780487804878049</v>
+        <v>71.002710027100264</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>45.25745257452575</v>
+        <v>66.937669376693762</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>45.25745257452575</v>
+        <v>66.124661246612476</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>46.341463414634148</v>
+        <v>65.853658536585371</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>41.192411924119241</v>
+        <v>59.078590785907856</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>38.211382113821138</v>
+        <v>59.078590785907856</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>37.94037940379404</v>
+        <v>57.72357723577236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>47.696476964769644</v>
+        <v>67.750677506775077</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>45.799457994579946</v>
+        <v>67.208672086720867</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>50.948509485094853</v>
+        <v>69.918699186991873</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>45.799457994579946</v>
+        <v>68.563685636856363</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>46.883468834688344</v>
+        <v>68.021680216802167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>47.154471544715449</v>
+        <v>69.105691056910572</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>41.192411924119241</v>
+        <v>59.078590785907856</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>40.650406504065039</v>
+        <v>59.891598915989164</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>42.005420054200542</v>
+        <v>60.433604336043359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>39.295392953929536</v>
+        <v>57.452574525745263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>37.669376693766935</v>
+        <v>55.826558265582662</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>44.986449864498645</v>
+        <v>60.975609756097562</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>37.398373983739837</v>
+        <v>56.36856368563685</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>37.94037940379404</v>
+        <v>56.36856368563685</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>38.482384823848236</v>
+        <v>56.36856368563685</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>47.154471544715449</v>
+        <v>67.750677506775077</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>47.154471544715449</v>
+        <v>68.834688346883468</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>47.154471544715449</v>
+        <v>69.376693766937663</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>45.25745257452575</v>
+        <v>66.937669376693762</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>45.25745257452575</v>
+        <v>65.311653116531161</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>44.715447154471541</v>
+        <v>67.208672086720867</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>43.360433604336045</v>
+        <v>65.040650406504056</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>49.322493224932252</v>
+        <v>66.395663956639567</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>45.799457994579946</v>
+        <v>67.750677506775077</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/MatchComparisonResults_G.xlsx
+++ b/Thresholding/Results/MatchComparisonResults_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
   <si>
     <t>HK_G_acc_SD</t>
   </si>
@@ -81,247 +84,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>64.769647696476966</v>
+        <v>62.308762169680108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>64.769647696476966</v>
+        <v>61.752433936022257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>65.040650406504056</v>
+        <v>62.030598052851182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>64.498644986449861</v>
+        <v>61.335187760778865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>63.956639566395665</v>
+        <v>62.030598052851182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>64.498644986449861</v>
+        <v>62.7260083449235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>65.853658536585371</v>
+        <v>63.56050069541029</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>68.834688346883468</v>
+        <v>65.507649513212797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>69.647696476964768</v>
+        <v>65.78581363004173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>67.208672086720867</v>
+        <v>64.116828929068149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>65.311653116531161</v>
+        <v>63.977746870653682</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>68.563685636856363</v>
+        <v>63.977746870653682</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>69.105691056910572</v>
+        <v>66.203059805285108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>68.834688346883468</v>
+        <v>66.063977746870648</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>68.834688346883468</v>
+        <v>66.342141863699581</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>67.208672086720867</v>
+        <v>62.308762169680108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>67.750677506775077</v>
+        <v>64.951321279554946</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>71.002710027100264</v>
+        <v>66.481223922114054</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>66.937669376693762</v>
+        <v>66.203059805285108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>66.124661246612476</v>
+        <v>65.78581363004173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>65.853658536585371</v>
+        <v>66.063977746870648</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>59.078590785907856</v>
+        <v>54.798331015299027</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>59.078590785907856</v>
+        <v>52.851182197496527</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>57.72357723577236</v>
+        <v>51.738525730180804</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>67.750677506775077</v>
+        <v>66.898470097357446</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>67.208672086720867</v>
+        <v>64.812239221140473</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>69.918699186991873</v>
+        <v>69.819193324061189</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>68.563685636856363</v>
+        <v>64.116828929068149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>68.021680216802167</v>
+        <v>61.891515994436716</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>69.105691056910572</v>
+        <v>63.421418636995831</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>59.078590785907856</v>
+        <v>57.440890125173851</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>59.891598915989164</v>
+        <v>58.553546592489568</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>60.433604336043359</v>
+        <v>59.80528511821975</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>57.452574525745263</v>
+        <v>52.712100139082061</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>55.826558265582662</v>
+        <v>52.990264255910994</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>60.975609756097562</v>
+        <v>55.910987482614736</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>56.36856368563685</v>
+        <v>52.712100139082061</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>56.36856368563685</v>
+        <v>52.712100139082061</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>56.36856368563685</v>
+        <v>52.294853963838662</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>67.750677506775077</v>
+        <v>64.812239221140473</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>68.834688346883468</v>
+        <v>66.063977746870648</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>69.376693766937663</v>
+        <v>66.759388038942973</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>66.937669376693762</v>
+        <v>65.507649513212797</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>65.311653116531161</v>
+        <v>63.421418636995831</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>67.208672086720867</v>
+        <v>63.977746870653682</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>65.040650406504056</v>
+        <v>62.7260083449235</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>66.395663956639567</v>
+        <v>64.951321279554946</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>67.750677506775077</v>
+        <v>65.646731571627257</v>
       </c>
     </row>
   </sheetData>
